--- a/biology/Zoologie/Heterometrus_glaucus/Heterometrus_glaucus.xlsx
+++ b/biology/Zoologie/Heterometrus_glaucus/Heterometrus_glaucus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterometrus glaucus est une espèce de scorpions de la famille des Scorpionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Indonésie à Sumatra et en Inde dans les Îles Andaman-et-Nicobar aux îles Nicobar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Indonésie à Sumatra et en Inde dans les Îles Andaman-et-Nicobar aux îles Nicobar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Palamnaeus costimanus glaucus par Thorell en 1876. Elle est placée en synonymie avec Heterometrus bengalensis par Couzijn en 1981[2]. Elle est relevée de synonymie par Prendini et Loria en 2020[1] qui dans le même temps placent Heterometrus liophysa madoerensis[3], Heterometrus laevifrons[4], Heterometrus liophysa separatus[2] et Heterometrus liophysa spartanicus[2] en synonymie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Palamnaeus costimanus glaucus par Thorell en 1876. Elle est placée en synonymie avec Heterometrus bengalensis par Couzijn en 1981. Elle est relevée de synonymie par Prendini et Loria en 2020 qui dans le même temps placent Heterometrus liophysa madoerensis, Heterometrus laevifrons, Heterometrus liophysa separatus et Heterometrus liophysa spartanicus en synonymie.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thorell, 1876 : « Études Scorpiologiques. » Atti della Societa Italiana di Scienze Naturali, vol. 19, p. 75–272 (texte intégral).</t>
         </is>
